--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/港澳台资本金.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/港澳台资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>30.59449</v>
-      </c>
-      <c r="C2" t="n">
-        <v>92.99334</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36.76952</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="F2" t="n">
-        <v>65.07956</v>
-      </c>
-      <c r="G2" t="n">
-        <v>90.80042</v>
-      </c>
-      <c r="H2" t="n">
-        <v>74.2264</v>
-      </c>
-      <c r="I2" t="n">
-        <v>32.02785</v>
-      </c>
-      <c r="J2" t="n">
-        <v>44.9079</v>
-      </c>
-      <c r="K2" t="n">
-        <v>160.59898</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2490.63087</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.97025</v>
-      </c>
-      <c r="N2" t="n">
-        <v>71.97478</v>
-      </c>
-      <c r="O2" t="n">
-        <v>48.35365</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41.44718</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.2482</v>
-      </c>
-      <c r="R2" t="n">
-        <v>120.1976</v>
-      </c>
-      <c r="S2" t="n">
-        <v>30.04422</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>38.48326</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.94856</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3.41836</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.35438</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>173.87803</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>235.84775</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>132.55908</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>71.34795</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.59286</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>21.9905</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>206.37098</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1.82837</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>72.46147000000001</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>137.02771</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>147.09906</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>2.16164</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>84.86483</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>60.78262</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>89.16096</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>38.92312</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.28804</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>32.97923</v>
-      </c>
-      <c r="C3" t="n">
-        <v>104.97652</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.06109</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>75.88875</v>
-      </c>
-      <c r="G3" t="n">
-        <v>108.28877</v>
-      </c>
-      <c r="H3" t="n">
-        <v>57.39058</v>
-      </c>
-      <c r="I3" t="n">
-        <v>37.19814</v>
-      </c>
-      <c r="J3" t="n">
-        <v>61.89083</v>
-      </c>
-      <c r="K3" t="n">
-        <v>201.70937</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2961.45196</v>
-      </c>
-      <c r="M3" t="n">
-        <v>27.7569</v>
-      </c>
-      <c r="N3" t="n">
-        <v>75.34345999999999</v>
-      </c>
-      <c r="O3" t="n">
-        <v>62.0373</v>
-      </c>
-      <c r="P3" t="n">
-        <v>36.93695</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.40487</v>
-      </c>
-      <c r="R3" t="n">
-        <v>125.30352</v>
-      </c>
-      <c r="S3" t="n">
-        <v>38.00186</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>40.53424</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.13953</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.11481</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.7296899999999999</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>181.6528</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>313.33127</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>161.94376</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>84.67845</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>31.22272</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>62.56813</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>235.67841</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>4.9427</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>92.13072</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>179.02385</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>174.39483</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3.58127</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>87.6054</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>73.41878</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>100.06296</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>43.14585</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.38365</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>46.42178</v>
-      </c>
-      <c r="C4" t="n">
-        <v>114.62756</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.91083</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>84.5882</v>
-      </c>
-      <c r="G4" t="n">
-        <v>143.3009</v>
-      </c>
-      <c r="H4" t="n">
-        <v>54.00852</v>
-      </c>
-      <c r="I4" t="n">
-        <v>37.25741</v>
-      </c>
-      <c r="J4" t="n">
-        <v>62.62435</v>
-      </c>
-      <c r="K4" t="n">
-        <v>214.74553</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3147.49611</v>
-      </c>
-      <c r="M4" t="n">
-        <v>32.68021</v>
-      </c>
-      <c r="N4" t="n">
-        <v>82.17151</v>
-      </c>
-      <c r="O4" t="n">
-        <v>68.04431</v>
-      </c>
-      <c r="P4" t="n">
-        <v>47.11544</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.3392</v>
-      </c>
-      <c r="R4" t="n">
-        <v>135.12703</v>
-      </c>
-      <c r="S4" t="n">
-        <v>41.34991</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>34.30107</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.14488</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.18208</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.49822</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>181.28206</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>362.04013</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>181.11159</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>98.03428</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>29.60872</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>43.056</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>244.80749</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>5.11464</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>89.35863999999999</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>178.32565</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>180.05447</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>3.20842</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>77.78104</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>77.30279</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>107.41326</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>37.02038</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.53761</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
